--- a/biology/Médecine/Samuel_Nko'o_Amvene/Samuel_Nko'o_Amvene.xlsx
+++ b/biology/Médecine/Samuel_Nko'o_Amvene/Samuel_Nko'o_Amvene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel Nko'o Amvene, né le 06 février 1957 à Enongal  dans le département de la Mvila,région du sud Cameroun, est un médecin, radiologue camerounais. Il a été vice doyen chargé des affaires académiques de la faculté de médecine et des sciences biomédicales (FMSB) de l’université de Yaoundé I [1] de 2009 à 2013 ainsi qu'inspecteur général des services du ministère de l’enseignement supérieur et président de la cellule ministérielle de lutte contre la corruption du dit ministère de 2015 à Juin 2022[2]. Il est Fondateur et directeur du groupe Afrimvoe Medical Services, professeur émérite de radiologie médicale, chef traditionnel du village Aloum 2, rédacteur en chef des journaux Health Sciences and Disease[3],[4] depuis 2013 et Health Research in Africa depuis 2023[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Nko'o Amvene, né le 06 février 1957 à Enongal  dans le département de la Mvila,région du sud Cameroun, est un médecin, radiologue camerounais. Il a été vice doyen chargé des affaires académiques de la faculté de médecine et des sciences biomédicales (FMSB) de l’université de Yaoundé I  de 2009 à 2013 ainsi qu'inspecteur général des services du ministère de l’enseignement supérieur et président de la cellule ministérielle de lutte contre la corruption du dit ministère de 2015 à Juin 2022. Il est Fondateur et directeur du groupe Afrimvoe Medical Services, professeur émérite de radiologie médicale, chef traditionnel du village Aloum 2, rédacteur en chef des journaux Health Sciences and Disease, depuis 2013 et Health Research in Africa depuis 2023,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Enfance et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">NKO’O AMVENE Samuel, est né le 06 février 1957  à l’hôpital confessionnel d’Enongal, région du sud Cameroun. Son père, AMVENE Ondoua Robert était le chef du village Aloum 2.  Huitième  enfant d’une fratrie de 12, il fait ses études secondaires au Lycée Général Leclerc, de 1967 à 1974. Après l’obtention de son baccalauréat scientifique, il a fait des études médicales au centre universitaire des sciences de la santé (CUSS) de l’époque actuellement faculté de médecine et des sciences biomédicales (FMSB) de l'université de Yaoundé I. En 1980, il a obtenu son doctorat en médecine, puis il est allé poursuivre des études de spécialisations à l’université de Bourgogne, Dijon, France. Il en ressort en 1987  avec les titres de Spécialiste de  radiologie option radiodiagnostic et médecine du sport.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Carrière Professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1988, NKO’O AMVENE Samuel  rentre au Cameroun et travaille comme médécin radiologue au centre hospitalier universitaire de Yaoundé où il a été chef du service de radiologie  de 2000 jusqu’en 2022.
 Il commence sa carrière universitaire en tant qu’assistant au CUSS en 1988 et la poursuit comme chargé de cours à partir de 1989. Il réussit le concours d’agrégation de radiologie du CAMES (conseil africain et malgache pour l’enseignement supérieur) en 1994 à Ouagadougou au Burkina Faso.  En 1998, il devient maître de conférences puis professeur titulaire en 2006  à la FMSB.
-il a été vice doyen chargé des affaires académiques de la FMSB[7] de 2009 à 2013 puis coordinateur général des études de spécialisation[8] de 2013-2015 dans la même institution. À partir de 2015, il devient Inspecteur Général des Services[9] et Président de la Cellule Ministérielle de Lutte contre la Corruption au Ministère de l’Enseignement Supérieur jusqu’en Juin 2022[10]. il est l'auteur de plusieurs publications scientifiques [11]dans des revues nationales et internationales[12],[13],[14],[15].
+il a été vice doyen chargé des affaires académiques de la FMSB de 2009 à 2013 puis coordinateur général des études de spécialisation de 2013-2015 dans la même institution. À partir de 2015, il devient Inspecteur Général des Services et Président de la Cellule Ministérielle de Lutte contre la Corruption au Ministère de l’Enseignement Supérieur jusqu’en Juin 2022. il est l'auteur de plusieurs publications scientifiques dans des revues nationales et internationales.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Carrière Politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">NKO’O AMVENE Samuel  est un militant du rassemblement démocratique du peuple camerounais (RDPC), dont le président est Paul Biya depuis 1982.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1987, il épouse Jeanne Marie Priscille Ameñele avec qui  il a sept enfants.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samuel_Nko%27o_Amvene</t>
+          <t>Samuel_Nko'o_Amvene</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, le conseil africain et malgache pour l’enseignement supérieur (CAMES) lui décerne les palmes académiques. Il est chevalier, Officier et Commandeur de l’ordre national de la valeur au cameroun[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le conseil africain et malgache pour l’enseignement supérieur (CAMES) lui décerne les palmes académiques. Il est chevalier, Officier et Commandeur de l’ordre national de la valeur au cameroun.
 </t>
         </is>
       </c>
